--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Insl3-Rxfp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +531,22 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6112893333333332</v>
+        <v>1.632390333333333</v>
       </c>
       <c r="H2">
-        <v>1.833868</v>
+        <v>4.897171</v>
       </c>
       <c r="I2">
-        <v>0.946945545162846</v>
+        <v>0.7260971586973231</v>
       </c>
       <c r="J2">
-        <v>0.9469455451628461</v>
+        <v>0.7260971586973231</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,33 +555,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.06617233333333335</v>
+        <v>0.06617233333333333</v>
       </c>
       <c r="N2">
         <v>0.198517</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.9596962108540322</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.9596962108540322</v>
       </c>
       <c r="Q2">
-        <v>0.04045044152844444</v>
+        <v>0.1080190772674444</v>
       </c>
       <c r="R2">
-        <v>0.364053973756</v>
+        <v>0.972171695407</v>
       </c>
       <c r="S2">
-        <v>0.946945545162846</v>
+        <v>0.6968326919136999</v>
       </c>
       <c r="T2">
-        <v>0.9469455451628461</v>
+        <v>0.6968326919136999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -587,55 +590,179 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1.632390333333333</v>
+      </c>
+      <c r="H3">
+        <v>4.897171</v>
+      </c>
+      <c r="I3">
+        <v>0.7260971586973231</v>
+      </c>
+      <c r="J3">
+        <v>0.7260971586973231</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.002779</v>
+      </c>
+      <c r="N3">
+        <v>0.008337000000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.04030378914596769</v>
+      </c>
+      <c r="P3">
+        <v>0.04030378914596769</v>
+      </c>
+      <c r="Q3">
+        <v>0.004536412736333334</v>
+      </c>
+      <c r="R3">
+        <v>0.040827714627</v>
+      </c>
+      <c r="S3">
+        <v>0.02926446678362315</v>
+      </c>
+      <c r="T3">
+        <v>0.02926446678362315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E3">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F3">
+      <c r="G4">
+        <v>0.6157803333333333</v>
+      </c>
+      <c r="H4">
+        <v>1.847341</v>
+      </c>
+      <c r="I4">
+        <v>0.2739028413026768</v>
+      </c>
+      <c r="J4">
+        <v>0.2739028413026769</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.06617233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.198517</v>
+      </c>
+      <c r="O4">
+        <v>0.9596962108540322</v>
+      </c>
+      <c r="P4">
+        <v>0.9596962108540322</v>
+      </c>
+      <c r="Q4">
+        <v>0.04074762147744444</v>
+      </c>
+      <c r="R4">
+        <v>0.366728593297</v>
+      </c>
+      <c r="S4">
+        <v>0.2628635189403323</v>
+      </c>
+      <c r="T4">
+        <v>0.2628635189403323</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.6157803333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.847341</v>
+      </c>
+      <c r="I5">
+        <v>0.2739028413026768</v>
+      </c>
+      <c r="J5">
+        <v>0.2739028413026769</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G3">
-        <v>0.03424866666666667</v>
-      </c>
-      <c r="H3">
-        <v>0.102746</v>
-      </c>
-      <c r="I3">
-        <v>0.05305445483715393</v>
-      </c>
-      <c r="J3">
-        <v>0.05305445483715392</v>
-      </c>
-      <c r="K3">
-        <v>2</v>
-      </c>
-      <c r="L3">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M3">
-        <v>0.06617233333333335</v>
-      </c>
-      <c r="N3">
-        <v>0.198517</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0.00226631418688889</v>
-      </c>
-      <c r="R3">
-        <v>0.020396827682</v>
-      </c>
-      <c r="S3">
-        <v>0.05305445483715393</v>
-      </c>
-      <c r="T3">
-        <v>0.05305445483715392</v>
+      <c r="M5">
+        <v>0.002779</v>
+      </c>
+      <c r="N5">
+        <v>0.008337000000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.04030378914596769</v>
+      </c>
+      <c r="P5">
+        <v>0.04030378914596769</v>
+      </c>
+      <c r="Q5">
+        <v>0.001711253546333333</v>
+      </c>
+      <c r="R5">
+        <v>0.015401281917</v>
+      </c>
+      <c r="S5">
+        <v>0.01103932236234454</v>
+      </c>
+      <c r="T5">
+        <v>0.01103932236234454</v>
       </c>
     </row>
   </sheetData>
